--- a/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
+++ b/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
@@ -328,9 +328,6 @@
     <t>If this is the case, the flux out of the right side will be larger than the flux coming in on the left side.  So all else being equal, this would lead to a decrease in temperature.</t>
   </si>
   <si>
-    <t>True or False: If the flux is increasing as you move from left to right (in the positive-x direction), the temperature of the volume will tend to increase (assuming 1D, no generation).</t>
-  </si>
-  <si>
     <t>Consider the 3D version of the heat equation above.  What is the best "translation" of the second derivatives on the right hand side?</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>The slope of field is a direct indicator of the flux at a given point, so finding the change in the slope allows us to determine the change in the flux from one side of the volume to the other.</t>
   </si>
   <si>
-    <t>Imagine two conductive spaces.  In situation 2, the thermal conductivity is twice as big as situation 1, and the thermal mass (rho * C) is four times as big.  The temperature of the infinitesimal volume in situation 2 would change temperature at half the rate of situation 1.  Why?</t>
-  </si>
-  <si>
     <t>Heat would be transferred more slowly into the volume.</t>
   </si>
   <si>
@@ -365,6 +359,12 @@
   </si>
   <si>
     <t>The higher thermal conductivity would lead to a lot of transferred heat, but because the thermal mass is much larger, it would not change the temperature as much.</t>
+  </si>
+  <si>
+    <t>True or False: In a 1D version of the heat equation such as the one above, if the flux is increasing as you move from left to right (in the positive-x direction), the temperature of the volume will tend to increase (assuming 1D, no generation).</t>
+  </si>
+  <si>
+    <t>Imagine two identical spaces in which conduction is occurring.  In situation 2, the thermal conductivity is twice as big as situation 1, and the thermal mass (rho * C) is four times as big.  The temperature of the infinitesimal volume in situation 2 would change temperature at half the rate of situation 1.  Why?</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1690,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,9 +1710,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -1759,7 +1759,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1779,18 +1779,18 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,9 +1827,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1858,18 +1858,18 @@
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>

--- a/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
+++ b/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="8_" sheetId="3" r:id="rId9"/>
     <sheet name="9_" sheetId="11" r:id="rId10"/>
     <sheet name="10_" sheetId="12" r:id="rId11"/>
-    <sheet name="MultC" sheetId="13" r:id="rId12"/>
-    <sheet name="MultAns" sheetId="14" r:id="rId13"/>
-    <sheet name="Quant" sheetId="15" r:id="rId14"/>
+    <sheet name="11_" sheetId="13" r:id="rId12"/>
+    <sheet name="12_" sheetId="14" r:id="rId13"/>
+    <sheet name="13" sheetId="15" r:id="rId14"/>
     <sheet name="Matching" sheetId="16" r:id="rId15"/>
     <sheet name="True_False" sheetId="17" r:id="rId16"/>
   </sheets>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
   <si>
     <t>Correct</t>
   </si>
@@ -121,75 +121,6 @@
     <t>Red herring 2</t>
   </si>
   <si>
-    <t>What is 40.1 times 3?</t>
-  </si>
-  <si>
-    <t>Leeway</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Don't forget to include the density</t>
-  </si>
-  <si>
-    <t>You may have a problem with units</t>
-  </si>
-  <si>
-    <t>Did you add correctly, shithead?</t>
-  </si>
-  <si>
-    <t>What is the best kind of bear?</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
-    <t>Polar</t>
-  </si>
-  <si>
-    <t>You're brilliant!</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>You're stupid.</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Battlestar Galactica.</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
-    <t>What is the color of the car?</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Obviously it's not red.</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>So close. But not really that close.</t>
-  </si>
-  <si>
     <t>Mark each statement True (T) or False (F)</t>
   </si>
   <si>
@@ -365,6 +296,84 @@
   </si>
   <si>
     <t>Imagine two identical spaces in which conduction is occurring.  In situation 2, the thermal conductivity is twice as big as situation 1, and the thermal mass (rho * C) is four times as big.  The temperature of the infinitesimal volume in situation 2 would change temperature at half the rate of situation 1.  Why?</t>
+  </si>
+  <si>
+    <t>A flux value on the left side</t>
+  </si>
+  <si>
+    <t>A flux value on both the left and right side</t>
+  </si>
+  <si>
+    <t>A temperature value on the left side and a flux value on the right side</t>
+  </si>
+  <si>
+    <t>A flux and temperature value on the right side</t>
+  </si>
+  <si>
+    <t>You need two BCs to find a defined solution.</t>
+  </si>
+  <si>
+    <t>This would produce a defined solution</t>
+  </si>
+  <si>
+    <t>This would not define a defined solution</t>
+  </si>
+  <si>
+    <t>The flux value gives you a slope of the field; having the slope on both sides is enough to define the field.</t>
+  </si>
+  <si>
+    <t>You need two BCs: it doesn't matter if they are the same type, or on the same side.</t>
+  </si>
+  <si>
+    <t>Which of the following would allow us to find a particular (i.e. a defined) temperature field using a 1D version of the heat transfer, assuming we had initial conditions? Match with the correct 'definition'.</t>
+  </si>
+  <si>
+    <t>The curvature of the temperature field is zero.</t>
+  </si>
+  <si>
+    <t>The initial temperature is zero.</t>
+  </si>
+  <si>
+    <t>The temperature field is linear.</t>
+  </si>
+  <si>
+    <t>The slope of the temperature field is zero.</t>
+  </si>
+  <si>
+    <t>The second derivative tells us the curvature of the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This would need to be defined as an initial temperature </t>
+  </si>
+  <si>
+    <t>Because the curvature is zero, the field must be linear</t>
+  </si>
+  <si>
+    <t>The slope will need to be determined by the boundary conditions.</t>
+  </si>
+  <si>
+    <t>Let's say you simplify the 1D heat equation, and you get the equation above.  What does this equation tell us?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>True or False: Assuming 1D and no heat generation, the thermal energy in the temperature field shown above is moving from left to right</t>
+  </si>
+  <si>
+    <t>Thermal energy always moves from hot to cold.</t>
+  </si>
+  <si>
+    <t>True or False: Assuming 1D and no heat generation, the temperature in this volume is increasing.</t>
+  </si>
+  <si>
+    <t>The slope (and so the flux) at the left boundary is larger in magnitude than that at the right. So there is more heat flowing into the volume than flowing out.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Which of the temperature fields in the image above is a possible solution if right is the positive direction and the BCs are defined as: flux_left = 2 W/m2, flux_right = 1 W/m2</t>
+  </si>
+  <si>
+    <t>The slope of the temperature field is larger on the left for this curve and is negative in both cases.   This means that the flux will be larger on the right, and will be positive on both boundaries.</t>
   </si>
 </sst>
 </file>
@@ -752,7 +761,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -774,66 +783,66 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,7 +861,83 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,32 +957,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -905,12 +988,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,32 +1013,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -963,12 +1044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,9 +1061,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -990,136 +1069,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1128,60 +1102,87 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="38.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>120.3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1308,7 +1309,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1319,46 +1320,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1385,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1395,7 +1396,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1404,7 +1405,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1413,7 +1414,7 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1422,7 +1423,7 @@
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1431,13 +1432,13 @@
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1470,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1480,7 +1481,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1489,18 +1490,18 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1509,7 +1510,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1549,7 +1550,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1560,7 +1561,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1569,7 +1570,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1578,7 +1579,7 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1587,18 +1588,18 @@
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -1633,7 +1634,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1644,7 +1645,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1653,7 +1654,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1662,7 +1663,7 @@
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1671,13 +1672,13 @@
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1712,13 +1713,13 @@
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,7 +1760,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1770,7 +1771,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1779,18 +1780,18 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1799,7 +1800,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1815,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1829,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1840,7 +1841,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1849,7 +1850,7 @@
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1858,18 +1859,18 @@
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1883,56 +1884,90 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
+++ b/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="113">
   <si>
     <t>Correct</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Thermal energy always moves from hot to cold.</t>
   </si>
   <si>
-    <t>True or False: Assuming 1D and no heat generation, the temperature in this volume is increasing.</t>
-  </si>
-  <si>
     <t>The slope (and so the flux) at the left boundary is larger in magnitude than that at the right. So there is more heat flowing into the volume than flowing out.</t>
   </si>
   <si>
@@ -374,6 +371,24 @@
   </si>
   <si>
     <t>The slope of the temperature field is larger on the left for this curve and is negative in both cases.   This means that the flux will be larger on the right, and will be positive on both boundaries.</t>
+  </si>
+  <si>
+    <t>True or False: Assuming 1D and no heat generation, the temperature in the temperature field shown above is increasing.</t>
+  </si>
+  <si>
+    <t>Assuming 1D and no heat generation, the second order derivative in the heat equation that describes this field is:</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>The *slope* is negative, but the curvature is positive.  So the second order derivative is positive (i.e. the slope is becoming more positive).  A positive second order term in the heat equation is contributing to a rising temperature in that volume.</t>
   </si>
 </sst>
 </file>
@@ -937,7 +952,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,62 +1004,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1071,13 +1030,13 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,6 +1047,72 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1143,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1135,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1183,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>

--- a/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
+++ b/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="13"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -367,9 +367,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Which of the temperature fields in the image above is a possible solution if right is the positive direction and the BCs are defined as: flux_left = 2 W/m2, flux_right = 1 W/m2</t>
-  </si>
-  <si>
     <t>The slope of the temperature field is larger on the left for this curve and is negative in both cases.   This means that the flux will be larger on the right, and will be positive on both boundaries.</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>The *slope* is negative, but the curvature is positive.  So the second order derivative is positive (i.e. the slope is becoming more positive).  A positive second order term in the heat equation is contributing to a rising temperature in that volume.</t>
+  </si>
+  <si>
+    <t>Which of the temperature fields in the image above is a possible solution if rightwards is the positive x-direction and the BCs are defined as: flux_(left boundary) = 2 W/m2, flux_(right_boundary) = 1 W/m2</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1077,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1088,18 +1088,18 @@
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F9" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,9 +1141,9 @@
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
+++ b/1_Heat_Eqn/Embedded_Qs_and_Data/1_1_2_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -1129,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
